--- a/team_specific_matrix/Norfolk St._A.xlsx
+++ b/team_specific_matrix/Norfolk St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1630434782608696</v>
+        <v>0.1815068493150685</v>
       </c>
       <c r="C2">
-        <v>0.6304347826086957</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01630434782608696</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1032608695652174</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08695652173913043</v>
+        <v>0.08561643835616438</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C3">
-        <v>0.01724137931034483</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03448275862068965</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7586206896551724</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1896551724137931</v>
+        <v>0.1885714285714286</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06086956521739131</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05217391304347826</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2260869565217391</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01739130434782609</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.191304347826087</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="R6">
-        <v>0.04347826086956522</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="S6">
-        <v>0.4086956521739131</v>
+        <v>0.4197530864197531</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1544117647058824</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01470588235294118</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04411764705882353</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1617647058823529</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02941176470588235</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1102941176470588</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="R7">
-        <v>0.05147058823529412</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S7">
-        <v>0.4338235294117647</v>
+        <v>0.4171122994652406</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01515151515151515</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0707070707070707</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1212121212121212</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0303030303030303</v>
+        <v>0.04150943396226415</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1717171717171717</v>
+        <v>0.1584905660377358</v>
       </c>
       <c r="R8">
-        <v>0.08585858585858586</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="S8">
-        <v>0.3939393939393939</v>
+        <v>0.369811320754717</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06956521739130435</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01739130434782609</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
-        <v>0.008695652173913044</v>
+        <v>0.00625</v>
       </c>
       <c r="F9">
-        <v>0.06086956521739131</v>
+        <v>0.0625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1130434782608696</v>
+        <v>0.10625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01739130434782609</v>
+        <v>0.03125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2782608695652174</v>
+        <v>0.24375</v>
       </c>
       <c r="R9">
-        <v>0.0782608695652174</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
-        <v>0.3565217391304348</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1196358907672302</v>
+        <v>0.12848158131177</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01820546163849155</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="E10">
-        <v>0.002600780234070221</v>
+        <v>0.001796945193171608</v>
       </c>
       <c r="F10">
-        <v>0.06762028608582575</v>
+        <v>0.06019766397124888</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1378413524057217</v>
+        <v>0.1401617250673854</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01820546163849155</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2457737321196359</v>
+        <v>0.2345013477088949</v>
       </c>
       <c r="R10">
-        <v>0.06501950585175553</v>
+        <v>0.06199460916442048</v>
       </c>
       <c r="S10">
-        <v>0.3250975292587776</v>
+        <v>0.3324348607367476</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.16</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07000000000000001</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="K11">
-        <v>0.185</v>
+        <v>0.2060810810810811</v>
       </c>
       <c r="L11">
-        <v>0.57</v>
+        <v>0.5337837837837838</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.015</v>
+        <v>0.01013513513513514</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7711864406779662</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1271186440677966</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="K12">
-        <v>0.008474576271186441</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="L12">
-        <v>0.03389830508474576</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05932203389830509</v>
+        <v>0.06097560975609756</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01492537313432836</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.08208955223880597</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="I15">
-        <v>0.07462686567164178</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="J15">
-        <v>0.3507462686567164</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="K15">
-        <v>0.09701492537313433</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007462686567164179</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="N15">
-        <v>0.007462686567164179</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="O15">
-        <v>0.06716417910447761</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2985074626865671</v>
+        <v>0.3263157894736842</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008403361344537815</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="I16">
-        <v>0.09243697478991597</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="J16">
-        <v>0.3361344537815126</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="K16">
-        <v>0.1260504201680672</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01680672268907563</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N16">
-        <v>0.008403361344537815</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="O16">
-        <v>0.06722689075630252</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2016806722689076</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0204778156996587</v>
+        <v>0.01790281329923274</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1331058020477816</v>
+        <v>0.1253196930946291</v>
       </c>
       <c r="I17">
-        <v>0.10580204778157</v>
+        <v>0.1150895140664962</v>
       </c>
       <c r="J17">
-        <v>0.4266211604095563</v>
+        <v>0.4271099744245525</v>
       </c>
       <c r="K17">
-        <v>0.1228668941979522</v>
+        <v>0.1253196930946291</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01023890784982935</v>
+        <v>0.01534526854219949</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07849829351535836</v>
+        <v>0.07416879795396419</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1023890784982935</v>
+        <v>0.09974424552429667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02247191011235955</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1573033707865168</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="I18">
-        <v>0.1123595505617977</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="J18">
-        <v>0.4606741573033708</v>
+        <v>0.4796747967479675</v>
       </c>
       <c r="K18">
-        <v>0.101123595505618</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06741573033707865</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07865168539325842</v>
+        <v>0.08130081300813008</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007082152974504249</v>
+        <v>0.01218274111675127</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.169971671388102</v>
+        <v>0.1644670050761421</v>
       </c>
       <c r="I19">
-        <v>0.07365439093484419</v>
+        <v>0.0751269035532995</v>
       </c>
       <c r="J19">
-        <v>0.4164305949008499</v>
+        <v>0.4233502538071066</v>
       </c>
       <c r="K19">
-        <v>0.1203966005665722</v>
+        <v>0.1289340101522843</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02691218130311615</v>
+        <v>0.02233502538071066</v>
       </c>
       <c r="N19">
-        <v>0.00141643059490085</v>
+        <v>0.002030456852791878</v>
       </c>
       <c r="O19">
-        <v>0.05807365439093484</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1260623229461756</v>
+        <v>0.1157360406091371</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Norfolk St._A.xlsx
+++ b/team_specific_matrix/Norfolk St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1815068493150685</v>
+        <v>0.1841269841269841</v>
       </c>
       <c r="C2">
-        <v>0.5958904109589042</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02054794520547945</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1164383561643836</v>
+        <v>0.1301587301587302</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08561643835616438</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005714285714285714</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C3">
-        <v>0.01142857142857143</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05142857142857143</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7428571428571429</v>
+        <v>0.7431693989071039</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1885714285714286</v>
+        <v>0.1912568306010929</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6857142857142857</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04938271604938271</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006172839506172839</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04938271604938271</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2407407407407407</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02469135802469136</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1604938271604938</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="R6">
-        <v>0.04938271604938271</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="S6">
-        <v>0.4197530864197531</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.160427807486631</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0160427807486631</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.053475935828877</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1390374331550802</v>
+        <v>0.1310679611650485</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0481283422459893</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.106951871657754</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="R7">
-        <v>0.05882352941176471</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="S7">
-        <v>0.4171122994652406</v>
+        <v>0.4223300970873786</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1509433962264151</v>
+        <v>0.1493055555555556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01132075471698113</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05660377358490566</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1283018867924528</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04150943396226415</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1584905660377358</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="R8">
-        <v>0.0830188679245283</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S8">
-        <v>0.369811320754717</v>
+        <v>0.3680555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06875000000000001</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03125</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E9">
-        <v>0.00625</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="F9">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.10625</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.24375</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S9">
-        <v>0.35</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.12848158131177</v>
+        <v>0.1261487050960735</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0215633423180593</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="E10">
-        <v>0.001796945193171608</v>
+        <v>0.001670843776106934</v>
       </c>
       <c r="F10">
-        <v>0.06019766397124888</v>
+        <v>0.06516290726817042</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1401617250673854</v>
+        <v>0.1370091896407686</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01886792452830189</v>
+        <v>0.02005012531328321</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2345013477088949</v>
+        <v>0.2330827067669173</v>
       </c>
       <c r="R10">
-        <v>0.06199460916442048</v>
+        <v>0.06265664160401002</v>
       </c>
       <c r="S10">
-        <v>0.3324348607367476</v>
+        <v>0.3316624895572264</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1621621621621622</v>
+        <v>0.1583850931677019</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08783783783783784</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K11">
-        <v>0.2060810810810811</v>
+        <v>0.2049689440993789</v>
       </c>
       <c r="L11">
-        <v>0.5337837837837838</v>
+        <v>0.5403726708074534</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01013513513513514</v>
+        <v>0.009316770186335404</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1402439024390244</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="K12">
-        <v>0.01219512195121951</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="L12">
-        <v>0.03658536585365853</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06097560975609756</v>
+        <v>0.0546448087431694</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6206896551724138</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3103448275862069</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02631578947368421</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07368421052631578</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="I15">
-        <v>0.07368421052631578</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="J15">
-        <v>0.331578947368421</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="K15">
-        <v>0.08947368421052632</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005263157894736842</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="N15">
-        <v>0.005263157894736842</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="O15">
-        <v>0.06842105263157895</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3263157894736842</v>
+        <v>0.3062200956937799</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1236559139784946</v>
+        <v>0.13</v>
       </c>
       <c r="I16">
-        <v>0.06989247311827956</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J16">
-        <v>0.4032258064516129</v>
+        <v>0.405</v>
       </c>
       <c r="K16">
-        <v>0.1344086021505376</v>
+        <v>0.13</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01612903225806452</v>
+        <v>0.02</v>
       </c>
       <c r="N16">
-        <v>0.005376344086021506</v>
+        <v>0.005</v>
       </c>
       <c r="O16">
-        <v>0.06989247311827956</v>
+        <v>0.065</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1612903225806452</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01790281329923274</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1253196930946291</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="I17">
-        <v>0.1150895140664962</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J17">
-        <v>0.4271099744245525</v>
+        <v>0.4119047619047619</v>
       </c>
       <c r="K17">
-        <v>0.1253196930946291</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01534526854219949</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07416879795396419</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09974424552429667</v>
+        <v>0.1023809523809524</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02439024390243903</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1544715447154472</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="I18">
-        <v>0.08943089430894309</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="J18">
-        <v>0.4796747967479675</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="K18">
-        <v>0.08943089430894309</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01626016260162602</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06504065040650407</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08130081300813008</v>
+        <v>0.07246376811594203</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01218274111675127</v>
+        <v>0.01211556383970177</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1644670050761421</v>
+        <v>0.1602982292637465</v>
       </c>
       <c r="I19">
-        <v>0.0751269035532995</v>
+        <v>0.07921714818266543</v>
       </c>
       <c r="J19">
-        <v>0.4233502538071066</v>
+        <v>0.4203168685927307</v>
       </c>
       <c r="K19">
-        <v>0.1289340101522843</v>
+        <v>0.1286113699906803</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02233502538071066</v>
+        <v>0.02143522833178006</v>
       </c>
       <c r="N19">
-        <v>0.002030456852791878</v>
+        <v>0.001863932898415657</v>
       </c>
       <c r="O19">
-        <v>0.05583756345177665</v>
+        <v>0.05964585274930102</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1157360406091371</v>
+        <v>0.1164958061509786</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Norfolk St._A.xlsx
+++ b/team_specific_matrix/Norfolk St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1841269841269841</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5777777777777777</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01904761904761905</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1301587301587302</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08888888888888889</v>
+        <v>0.09226190476190477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00546448087431694</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C3">
-        <v>0.01092896174863388</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04918032786885246</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7431693989071039</v>
+        <v>0.7382198952879581</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1912568306010929</v>
+        <v>0.1989528795811518</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02631578947368421</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7105263157894737</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2631578947368421</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04918032786885246</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00546448087431694</v>
+        <v>0.015</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0546448087431694</v>
+        <v>0.055</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2185792349726776</v>
+        <v>0.21</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0273224043715847</v>
+        <v>0.025</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1475409836065574</v>
+        <v>0.15</v>
       </c>
       <c r="R6">
-        <v>0.0546448087431694</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
-        <v>0.4426229508196721</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1650485436893204</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01456310679611651</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05825242718446602</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1310679611650485</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04368932038834952</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1067961165048544</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="R7">
-        <v>0.05825242718446602</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="S7">
-        <v>0.4223300970873786</v>
+        <v>0.4045454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1493055555555556</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01041666666666667</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05208333333333334</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1354166666666667</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1597222222222222</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="R8">
-        <v>0.08333333333333333</v>
+        <v>0.08169934640522876</v>
       </c>
       <c r="S8">
-        <v>0.3680555555555556</v>
+        <v>0.369281045751634</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06666666666666667</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02777777777777778</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="E9">
-        <v>0.005555555555555556</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F9">
-        <v>0.05555555555555555</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1055555555555556</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02777777777777778</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2333333333333333</v>
+        <v>0.2303664921465969</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="S9">
-        <v>0.3666666666666666</v>
+        <v>0.3717277486910995</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1261487050960735</v>
+        <v>0.1248073959938367</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02255639097744361</v>
+        <v>0.02311248073959938</v>
       </c>
       <c r="E10">
-        <v>0.001670843776106934</v>
+        <v>0.002311248073959939</v>
       </c>
       <c r="F10">
-        <v>0.06516290726817042</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1370091896407686</v>
+        <v>0.1340523882896764</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02005012531328321</v>
+        <v>0.01926040061633282</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2330827067669173</v>
+        <v>0.2326656394453005</v>
       </c>
       <c r="R10">
-        <v>0.06265664160401002</v>
+        <v>0.06548536209553159</v>
       </c>
       <c r="S10">
-        <v>0.3316624895572264</v>
+        <v>0.3305084745762712</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1583850931677019</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="K11">
-        <v>0.2049689440993789</v>
+        <v>0.2085714285714286</v>
       </c>
       <c r="L11">
-        <v>0.5403726708074534</v>
+        <v>0.5342857142857143</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009316770186335404</v>
+        <v>0.008571428571428572</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7540983606557377</v>
+        <v>0.7487179487179487</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1311475409836066</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="K12">
-        <v>0.01092896174863388</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L12">
-        <v>0.04918032786885246</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0546448087431694</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G13">
-        <v>0.6333333333333333</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02870813397129187</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07655502392344497</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="I15">
-        <v>0.07655502392344497</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="J15">
-        <v>0.354066985645933</v>
+        <v>0.3493449781659388</v>
       </c>
       <c r="K15">
-        <v>0.0861244019138756</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004784688995215311</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="N15">
-        <v>0.004784688995215311</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="O15">
-        <v>0.06220095693779904</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3062200956937799</v>
+        <v>0.3013100436681223</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.13</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="I16">
-        <v>0.07000000000000001</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="J16">
-        <v>0.405</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="K16">
-        <v>0.13</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N16">
-        <v>0.005</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="O16">
-        <v>0.065</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.155</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01666666666666667</v>
+        <v>0.01545253863134658</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1285714285714286</v>
+        <v>0.1236203090507726</v>
       </c>
       <c r="I17">
-        <v>0.1142857142857143</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="J17">
-        <v>0.4119047619047619</v>
+        <v>0.4194260485651214</v>
       </c>
       <c r="K17">
-        <v>0.1333333333333333</v>
+        <v>0.1346578366445916</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01428571428571429</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07857142857142857</v>
+        <v>0.08167770419426049</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1023809523809524</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02898550724637681</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1594202898550725</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.09420289855072464</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4855072463768116</v>
+        <v>0.48</v>
       </c>
       <c r="K18">
-        <v>0.08695652173913043</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01449275362318841</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05797101449275362</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07246376811594203</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01211556383970177</v>
+        <v>0.01207937877480587</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1602982292637465</v>
+        <v>0.1570319240724763</v>
       </c>
       <c r="I19">
-        <v>0.07921714818266543</v>
+        <v>0.07937877480586712</v>
       </c>
       <c r="J19">
-        <v>0.4203168685927307</v>
+        <v>0.4184641932700604</v>
       </c>
       <c r="K19">
-        <v>0.1286113699906803</v>
+        <v>0.1276962899050906</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02143522833178006</v>
+        <v>0.02243313201035375</v>
       </c>
       <c r="N19">
-        <v>0.001863932898415657</v>
+        <v>0.001725625539257981</v>
       </c>
       <c r="O19">
-        <v>0.05964585274930102</v>
+        <v>0.06125970664365833</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1164958061509786</v>
+        <v>0.1199309749784297</v>
       </c>
     </row>
   </sheetData>
